--- a/Tahsilat Tahakkuk Harita Analizi/veriler/Tahsilat Tahakkuk Excel Dosyaları/Yıllar/İllere Göre Tahsilat Tahakkuk 2023/5_Aksaray_2023.xlsx
+++ b/Tahsilat Tahakkuk Harita Analizi/veriler/Tahsilat Tahakkuk Excel Dosyaları/Yıllar/İllere Göre Tahsilat Tahakkuk 2023/5_Aksaray_2023.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HUSOCAN\Desktop\Yazılarım\İllere Göre Tahsilat Tahakkuk 2023\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HUSOCAN\Desktop\İllere Göre Tahsilat Tahakkuk 2023\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{EE821D66-0375-4D49-BA60-AC39A4BF0498}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{C2C6D64C-530C-4940-A84A-BA51DADF1A98}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="675" xr2:uid="{6AEDFB10-222C-4B39-A72D-9903786FF299}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="675" xr2:uid="{0D29A6A4-3D7D-4C18-BF1E-E45E07FEFB5C}"/>
   </bookViews>
   <sheets>
     <sheet name="ARALIK" sheetId="124" r:id="rId1"/>
@@ -930,14 +930,14 @@
   </cellXfs>
   <cellStyles count="9">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="1" xr:uid="{9BD3008F-2C73-491E-A33C-680B9E5545D1}"/>
-    <cellStyle name="Normal 2 2" xfId="2" xr:uid="{BA4AF1A9-FD64-4924-BA38-EFDF803291B6}"/>
-    <cellStyle name="Normal 2 3" xfId="3" xr:uid="{EF9315E4-02DE-4B37-B74E-A9E19591CCDE}"/>
-    <cellStyle name="Normal 3" xfId="4" xr:uid="{EA641465-8E64-46CD-B3DD-C7FC496889CD}"/>
-    <cellStyle name="Normal_genel_gelir_det3" xfId="5" xr:uid="{98146AF9-F8E3-42B4-9981-949D88E9C3BC}"/>
-    <cellStyle name="Normal_genelgelirtahk_tahs" xfId="6" xr:uid="{84012E54-6857-406F-9BE2-38A62D8F4DAA}"/>
-    <cellStyle name="Not 2" xfId="7" xr:uid="{3120DAD4-9558-4803-A6B9-4DF30973C462}"/>
-    <cellStyle name="Virgül [0]_29dan32ye" xfId="8" xr:uid="{632F93F9-7A17-464F-B530-EF2C842D54F9}"/>
+    <cellStyle name="Normal 2" xfId="1" xr:uid="{6BD9C557-6E4F-4430-ADFA-AF910162146C}"/>
+    <cellStyle name="Normal 2 2" xfId="2" xr:uid="{433A6845-75F2-4490-8763-22C64CB36FD3}"/>
+    <cellStyle name="Normal 2 3" xfId="3" xr:uid="{1D46B96C-B9AB-4CF1-B8EF-CC64EF44EC5E}"/>
+    <cellStyle name="Normal 3" xfId="4" xr:uid="{A2A4CBD6-CEF7-46EC-ACFD-B8B19C9FBBCB}"/>
+    <cellStyle name="Normal_genel_gelir_det3" xfId="5" xr:uid="{5033ED74-3D90-4312-B29C-612806B899BB}"/>
+    <cellStyle name="Normal_genelgelirtahk_tahs" xfId="6" xr:uid="{0A91AC61-2D8D-4433-AA30-17DAF8BA89DB}"/>
+    <cellStyle name="Not 2" xfId="7" xr:uid="{C1549EB9-E2B3-42A7-AE9D-BD65E8579D4B}"/>
+    <cellStyle name="Virgül [0]_29dan32ye" xfId="8" xr:uid="{23AA0476-740C-437F-A44E-A5DCC8B1F5C3}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1307,7 +1307,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2881EA82-1C04-4DC6-ABA5-9FA7AF10A43A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B29C1DBD-7506-4984-AD0C-7AE14641FFAC}">
   <dimension ref="B2:F105"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -2587,7 +2587,7 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D977EB28-255B-46F4-893A-DAC3CB40BC72}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DE05D4DF-9FDD-49FB-8AC3-0B7313B5AC1A}">
   <dimension ref="B2:F101"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -3822,7 +3822,7 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{91156E53-D0A0-47FC-B8E7-8655A5E282D5}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A0D8B7A2-27B9-40A0-9745-C6F79536F94F}">
   <dimension ref="B2:F101"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -5051,7 +5051,7 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6C6DB97A-EBF1-466E-9338-AF87A6B24FC1}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AF2A794B-7DC1-4C72-B62F-B75CBC003528}">
   <dimension ref="B2:F101"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -6270,7 +6270,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B658CCB1-C92F-4884-A2E4-E5220ABB8496}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{36A6BA79-C542-432B-8770-AA26CE449E9E}">
   <dimension ref="B2:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -7547,7 +7547,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BB32CD55-C83D-496C-A3D5-C7A1E596360F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8D66AF02-64C6-464D-8E90-C8550173EA55}">
   <dimension ref="B2:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -8824,7 +8824,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4BB5DB2D-5362-4C59-AC6F-7DC9A59A999A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C4806006-2173-4FF8-8B97-2C9005FAD516}">
   <dimension ref="B2:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -10101,7 +10101,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E0D13BD3-3C62-4AB3-AF02-1639B94F6A77}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C765BA83-9667-4A29-ABA8-4A1AE2972F52}">
   <dimension ref="B2:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -11378,7 +11378,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{552E23B5-FA27-4079-9A83-5C6D5B223D4C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{10A2FCD2-75C7-4C3A-AD69-5FEB059AB838}">
   <dimension ref="B2:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -12655,7 +12655,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2C586A1D-4286-4BF1-9FF4-10F5AB9A31C4}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BAAA1D0D-F445-4C4C-984C-3DAB3AAD2306}">
   <dimension ref="B2:F103"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -13920,7 +13920,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7AED2B01-E548-42F6-830D-DFD36F3939E3}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{23031B2C-DC37-4B7A-A5D0-E3083ED1CE29}">
   <dimension ref="B2:F103"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -15185,7 +15185,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B3220455-2542-4A1E-86D8-417D6CEF9C22}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0DBE7CCD-237D-4820-8BE5-EC62F9EAC217}">
   <dimension ref="B2:F102"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
